--- a/LabFizyka/cw3 cw0 cw 4fizyka.xlsx
+++ b/LabFizyka/cw3 cw0 cw 4fizyka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrmrm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w71338\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22249E9C-3846-4166-ACBF-2BF36E1BDFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87400B12-452A-42D8-B982-CD181DACBF37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{07698564-2BCD-4C08-A4D3-7614F053D8E5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" activeTab="2" xr2:uid="{07698564-2BCD-4C08-A4D3-7614F053D8E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Cw0" sheetId="2" r:id="rId1"/>
@@ -170,9 +170,6 @@
     <t>v = L/Δt [m/s]</t>
   </si>
   <si>
-    <t xml:space="preserve">ΔL = </t>
-  </si>
-  <si>
     <t>Vsr</t>
   </si>
   <si>
@@ -201,13 +198,16 @@
   </si>
   <si>
     <t>k = 3,60 +- 1,13</t>
+  </si>
+  <si>
+    <t>ΔL = 0,02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +349,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -357,15 +366,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1368,13 +1368,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D92D228-16DA-4A97-8A8D-61BC4EC06C75}">
   <dimension ref="B2:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="34" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="B125" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>2.5600000000000005</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>0.3600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19">
       <c r="B7">
         <v>5</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19">
       <c r="B8">
         <v>6</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>6.7600000000000007</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19">
       <c r="B9">
         <v>7</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>1.9599999999999997</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19">
       <c r="B10">
         <v>8</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19">
       <c r="B11">
         <v>9</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19">
       <c r="B12">
         <v>10</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>1.9599999999999997</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19">
       <c r="E13" t="s">
         <v>27</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19">
       <c r="E14" t="s">
         <v>28</v>
       </c>
@@ -1626,17 +1626,17 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13">
       <c r="C17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13">
       <c r="C18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13">
       <c r="C20" t="s">
         <v>30</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13">
       <c r="D21" t="s">
         <v>36</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>2.3904999999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13">
       <c r="C22" t="s">
         <v>34</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13">
       <c r="B24" t="s">
         <v>31</v>
       </c>
@@ -1673,12 +1673,12 @@
         <v>1.1259999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13">
       <c r="B25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
       <c r="B28" t="s">
         <v>32</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>1.7320508075688772</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13">
       <c r="C29">
         <v>5.8000000000000003E-2</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>3.4641016151377544</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13">
       <c r="E30">
         <f>0.1/E29</f>
         <v>2.8867513459481291E-2</v>
@@ -1723,12 +1723,12 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:25">
       <c r="E5" t="s">
         <v>0</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:25">
       <c r="E6" t="s">
         <v>8</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:25">
       <c r="E7">
         <v>900</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>30555608.581911124</v>
       </c>
     </row>
-    <row r="8" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:25">
       <c r="E8">
         <v>900</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>4825320.2845155653</v>
       </c>
     </row>
-    <row r="9" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:25">
       <c r="E9">
         <v>900</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>21213.041002265622</v>
       </c>
     </row>
-    <row r="10" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:25">
       <c r="E10">
         <v>900</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>758298.47209725645</v>
       </c>
     </row>
-    <row r="11" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:25">
       <c r="E11">
         <v>900</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>9513815.9775250498</v>
       </c>
     </row>
-    <row r="12" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:25">
       <c r="E12">
         <v>900</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>1569936.5539540569</v>
       </c>
     </row>
-    <row r="13" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:25">
       <c r="E13">
         <v>900</v>
       </c>
@@ -2194,18 +2194,18 @@
         <v>7085174.1699057044</v>
       </c>
     </row>
-    <row r="28" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:25">
       <c r="Y28">
         <f>(N28-$E$33)^2</f>
         <v>30098144.025008153</v>
       </c>
     </row>
-    <row r="29" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:25">
       <c r="L29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:25">
       <c r="L30">
         <v>7</v>
       </c>
@@ -2217,13 +2217,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:25">
       <c r="Y31">
         <f>SUM(Y7:Y28)</f>
         <v>84427511.105919182</v>
       </c>
     </row>
-    <row r="32" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:25">
       <c r="E32" t="s">
         <v>16</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>2010178.8358552186</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:6">
       <c r="E33">
         <f>AVERAGE(N7:N28)</f>
         <v>5486.1775422426999</v>
@@ -2252,23 +2252,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D3982A-D3A9-430F-BCE0-DB119AEC707C}">
-  <dimension ref="A4:V37"/>
+  <dimension ref="A4:V86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:22">
       <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
@@ -2288,579 +2288,675 @@
         <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U4" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" t="s">
         <v>50</v>
       </c>
-      <c r="V4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="3:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="3:22">
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>0.4</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.4810000000000001</v>
+      </c>
       <c r="G5" s="1">
         <f>F5-E5</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="e">
+        <v>1.0000000000001119E-3</v>
+      </c>
+      <c r="H5" s="1">
         <f>$D$5/G5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" t="e">
+        <v>399.99999999995526</v>
+      </c>
+      <c r="K5">
         <f>SUM(H5:H8,H10:H25)/20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U5" t="e">
+        <v>410.00000000000244</v>
+      </c>
+      <c r="U5">
         <f>H5-$K$5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V5" t="e">
+        <v>-10.00000000004718</v>
+      </c>
+      <c r="V5">
         <f>U5*U5</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.3">
+        <v>100.0000000009436</v>
+      </c>
+    </row>
+    <row r="6" spans="3:22">
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="1">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.486</v>
+      </c>
       <c r="G6" s="1">
         <f t="shared" ref="G6:G8" si="0">F6-E6</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="e">
+        <v>9.9999999999988987E-4</v>
+      </c>
+      <c r="H6" s="1">
         <f t="shared" ref="H6:H8" si="1">$D$5/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U6" t="e">
+        <v>400.00000000004405</v>
+      </c>
+      <c r="U6">
         <f t="shared" ref="U6:U25" si="2">H6-$K$5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V6" t="e">
+        <v>-9.9999999999583906</v>
+      </c>
+      <c r="V6">
         <f t="shared" ref="V6:V25" si="3">U6*U6</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="3:22" x14ac:dyDescent="0.3">
+        <v>99.999999999167812</v>
+      </c>
+    </row>
+    <row r="7" spans="3:22">
       <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.4910000000000001</v>
+      </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="e">
+        <v>1.0000000000001119E-3</v>
+      </c>
+      <c r="H7" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U7" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V7" t="e">
+        <v>399.99999999995526</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>-10.00000000004718</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.3">
+        <v>100.0000000009436</v>
+      </c>
+    </row>
+    <row r="8" spans="3:22">
       <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="1">
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.496</v>
+      </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="e">
+        <v>9.9999999999988987E-4</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V8" t="e">
+        <v>400.00000000004405</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>-9.9999999999583906</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="U9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="3:22" x14ac:dyDescent="0.3">
+        <v>99.999999999167812</v>
+      </c>
+    </row>
+    <row r="9" spans="3:22">
+      <c r="C9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="3:22">
       <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="D10" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.423</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.4239999999999999</v>
+      </c>
       <c r="G10" s="1">
         <f>F10-E10</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1" t="e">
+        <v>9.9999999999988987E-4</v>
+      </c>
+      <c r="H10" s="1">
         <f>$D$10/G10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U10" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V10" t="e">
+        <v>420.00000000004621</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>10.000000000043769</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="3:22" x14ac:dyDescent="0.3">
+        <v>100.00000000087539</v>
+      </c>
+    </row>
+    <row r="11" spans="3:22">
       <c r="C11" s="2">
         <v>6</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="1">
+        <v>1.4279999999999999</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.429</v>
+      </c>
       <c r="G11" s="1">
         <f t="shared" ref="G11:G25" si="4">F11-E11</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="1" t="e">
+        <v>1.0000000000001119E-3</v>
+      </c>
+      <c r="H11" s="1">
         <f t="shared" ref="H11:H13" si="5">$D$10/G11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U11" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V11" t="e">
+        <v>419.99999999995299</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>9.9999999999505462</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="3:22" x14ac:dyDescent="0.3">
+        <v>99.999999999010925</v>
+      </c>
+    </row>
+    <row r="12" spans="3:22">
       <c r="C12" s="2">
         <v>7</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="1">
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.4339999999999999</v>
+      </c>
       <c r="G12" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="1" t="e">
+        <v>9.9999999999988987E-4</v>
+      </c>
+      <c r="H12" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V12" t="e">
+        <v>420.00000000004621</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>10.000000000043769</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="3:22" x14ac:dyDescent="0.3">
+        <v>100.00000000087539</v>
+      </c>
+    </row>
+    <row r="13" spans="3:22">
       <c r="C13" s="2">
         <v>8</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="1">
+        <v>1.4379999999999999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.4390000000000001</v>
+      </c>
       <c r="G13" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="e">
+        <v>1.0000000000001119E-3</v>
+      </c>
+      <c r="H13" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U13" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" t="e">
+        <v>419.99999999995299</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>9.9999999999505462</v>
+      </c>
+      <c r="V13">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="3:22" x14ac:dyDescent="0.3">
+        <v>99.999999999010925</v>
+      </c>
+    </row>
+    <row r="14" spans="3:22">
       <c r="C14" s="2">
         <v>9</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="D14" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.2684</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.2696000000000001</v>
+      </c>
       <c r="G14" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="e">
+        <v>1.2000000000000899E-3</v>
+      </c>
+      <c r="H14" s="1">
         <f>$D$14/G14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U14" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" t="e">
+        <v>366.66666666663923</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>-43.333333333363214</v>
+      </c>
+      <c r="V14">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.3">
+        <v>1877.7777777803674</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22">
       <c r="C15" s="2">
         <v>10</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="1">
+        <v>1.2734000000000001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.2746</v>
+      </c>
       <c r="G15" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1" t="e">
+        <v>1.1999999999998678E-3</v>
+      </c>
+      <c r="H15" s="1">
         <f t="shared" ref="H15:H17" si="6">$D$14/G15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U15" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V15" t="e">
+        <v>366.66666666670704</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>-43.3333333332954</v>
+      </c>
+      <c r="V15">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.3">
+        <v>1877.7777777744902</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22">
       <c r="C16" s="2">
         <v>11</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="1">
+        <v>1.2784</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.2796000000000001</v>
+      </c>
       <c r="G16" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="e">
+        <v>1.2000000000000899E-3</v>
+      </c>
+      <c r="H16" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U16" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V16" t="e">
+        <v>366.66666666663923</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>-43.333333333363214</v>
+      </c>
+      <c r="V16">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+        <v>1877.7777777803674</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22">
       <c r="C17" s="2">
         <v>12</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="1">
+        <v>1.2834000000000001</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.2846</v>
+      </c>
       <c r="G17" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="e">
+        <v>1.1999999999998678E-3</v>
+      </c>
+      <c r="H17" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U17" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V17" t="e">
+        <v>366.66666666670704</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>-43.3333333332954</v>
+      </c>
+      <c r="V17">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+        <v>1877.7777777744902</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22">
       <c r="C18" s="2">
         <v>13</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="D18" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.4683999999999999</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.4696</v>
+      </c>
       <c r="G18" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="1" t="e">
+        <v>1.2000000000000899E-3</v>
+      </c>
+      <c r="H18" s="1">
         <f>$D$18/G18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V18" t="e">
+        <v>383.33333333330467</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="2"/>
+        <v>-26.666666666697779</v>
+      </c>
+      <c r="V18">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+        <v>711.11111111277046</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
       <c r="C19" s="2">
         <v>14</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="1">
+        <v>1.4734</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.4745999999999999</v>
+      </c>
       <c r="G19" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="1" t="e">
+        <v>1.1999999999998678E-3</v>
+      </c>
+      <c r="H19" s="1">
         <f t="shared" ref="H19:H21" si="7">$D$18/G19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U19" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V19" t="e">
+        <v>383.33333333337555</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>-26.666666666626895</v>
+      </c>
+      <c r="V19">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+        <v>711.11111110898992</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
       <c r="C20" s="2">
         <v>15</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="1">
+        <v>1.4783999999999999</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.4796</v>
+      </c>
       <c r="G20" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="1" t="e">
+        <v>1.2000000000000899E-3</v>
+      </c>
+      <c r="H20" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V20" t="e">
+        <v>383.33333333330467</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="2"/>
+        <v>-26.666666666697779</v>
+      </c>
+      <c r="V20">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+        <v>711.11111111277046</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
       <c r="C21" s="2">
         <v>16</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="1">
+        <v>1.4834000000000001</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.4845999999999999</v>
+      </c>
       <c r="G21" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="1" t="e">
+        <v>1.1999999999998678E-3</v>
+      </c>
+      <c r="H21" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U21" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V21" t="e">
+        <v>383.33333333337555</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>-26.666666666626895</v>
+      </c>
+      <c r="V21">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+        <v>711.11111110898992</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
       <c r="C22" s="2">
         <v>17</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="D22" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.448</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.4490000000000001</v>
+      </c>
       <c r="G22" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="1" t="e">
+        <v>1.0000000000001119E-3</v>
+      </c>
+      <c r="H22" s="1">
         <f>$D$22/G22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V22" t="e">
+        <v>479.99999999994628</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="2"/>
+        <v>69.999999999943839</v>
+      </c>
+      <c r="V22">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+        <v>4899.9999999921374</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
       <c r="C23" s="2">
         <v>18</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="1">
+        <v>1.4530000000000001</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.454</v>
+      </c>
       <c r="G23" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="1" t="e">
+        <v>9.9999999999988987E-4</v>
+      </c>
+      <c r="H23" s="1">
         <f t="shared" ref="H23:H25" si="8">$D$22/G23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V23" t="e">
+        <v>480.00000000005286</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="2"/>
+        <v>70.00000000005042</v>
+      </c>
+      <c r="V23">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+        <v>4900.0000000070586</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
       <c r="C24" s="2">
         <v>19</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="1">
+        <v>1.458</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.4590000000000001</v>
+      </c>
       <c r="G24" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="1" t="e">
+        <v>1.0000000000001119E-3</v>
+      </c>
+      <c r="H24" s="1">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U24" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V24" t="e">
+        <v>479.99999999994628</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="2"/>
+        <v>69.999999999943839</v>
+      </c>
+      <c r="V24">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+        <v>4899.9999999921374</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22">
       <c r="C25" s="2">
         <v>20</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="1">
+        <v>1.4630000000000001</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1.464</v>
+      </c>
       <c r="G25" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="1" t="e">
+        <v>9.9999999999988987E-4</v>
+      </c>
+      <c r="H25" s="1">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" t="e">
+        <v>480.00000000005286</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="2"/>
+        <v>70.00000000005042</v>
+      </c>
+      <c r="V25">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+        <v>4900.0000000070586</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22">
       <c r="U27" t="s">
+        <v>52</v>
+      </c>
+      <c r="V27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="U28" t="s">
         <v>53</v>
       </c>
-      <c r="V27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="U28" t="s">
-        <v>54</v>
-      </c>
-      <c r="V28" t="e">
+      <c r="V28">
         <f>SUM(V5:V25)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22" ht="18" x14ac:dyDescent="0.35">
+        <v>30755.555555551622</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" ht="18">
       <c r="E29" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U29">
         <f>20*19</f>
         <v>380</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="E30" t="e">
+    <row r="30" spans="2:22">
+      <c r="E30">
         <f>SQRT((V28/U29))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+        <v>8.9964255409917957</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22">
       <c r="B32">
         <v>0.95</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="18">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33">
         <v>2.093</v>
       </c>
-      <c r="G33" t="e">
+      <c r="G33">
         <f>K5</f>
-        <v>#DIV/0!</v>
+        <v>410.00000000000244</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I33" t="e">
+        <v>55</v>
+      </c>
+      <c r="I33">
         <f>C37</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C37" t="e">
+        <v>18.829518657295829</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="C37">
         <f>B33*E30</f>
-        <v>#DIV/0!</v>
+        <v>18.829518657295829</v>
+      </c>
+    </row>
+    <row r="86" spans="6:9">
+      <c r="F86" s="1">
+        <v>1.472</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1.4730000000000001</v>
+      </c>
+      <c r="H86" s="1">
+        <f>G86-F86</f>
+        <v>1.0000000000001119E-3</v>
+      </c>
+      <c r="I86" s="1">
+        <f>$D$10/H86</f>
+        <v>419.99999999995299</v>
       </c>
     </row>
   </sheetData>
